--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1988.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1988.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"import" + 0.001*"exchange" + 0.001*"foreign" + 0.001*"bank" + 0.001*"export" + 0.001*"may" + 0.001*"currency" + 0.001*"account" + 0.001*"country" + 0.001*"percent"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"import" + 0.001*"foreign" + 0.001*"bank" + 0.001*"export" + 0.001*"account" + 0.001*"may" + 0.001*"currency" + 0.001*"rate" + 0.001*"percent"</t>
-  </si>
-  <si>
-    <t>0.023*"foreign" + 0.021*"import" + 0.018*"exchange" + 0.017*"bank" + 0.012*"currency" + 0.011*"account" + 0.010*"percent" + 0.010*"may" + 0.009*"payment" + 0.008*"country"</t>
-  </si>
-  <si>
-    <t>0.021*"foreign" + 0.019*"import" + 0.018*"exchange" + 0.018*"bank" + 0.014*"export" + 0.013*"may" + 0.012*"currency" + 0.010*"rate" + 0.009*"account" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.007*"foreign" + 0.005*"bank" + 0.004*"import" + 0.004*"exchange" + 0.004*"may" + 0.003*"currency" + 0.003*"percent" + 0.003*"export" + 0.003*"account" + 0.002*"country"</t>
+    <t>0.044*"export" + 0.038*"u" + 0.021*"republic" + 0.021*"year" + 0.019*"per" + 0.016*"prohibit" + 0.016*"franc" + 0.014*"south" + 0.014*"month" + 0.013*"proceeds"</t>
+  </si>
+  <si>
+    <t>0.041*"import" + 0.021*"export" + 0.015*"country" + 0.013*"product" + 0.013*"foreign" + 0.013*"exchange" + 0.013*"certain" + 0.013*"trade" + 0.013*"dollar" + 0.012*"subject"</t>
+  </si>
+  <si>
+    <t>0.041*"currency" + 0.040*"foreign" + 0.039*"bank" + 0.033*"account" + 0.029*"exchange" + 0.023*"may" + 0.017*"fund" + 0.016*"rate" + 0.016*"payment" + 0.014*"nonresident"</t>
+  </si>
+  <si>
+    <t>0.042*"import" + 0.030*"bank" + 0.026*"may" + 0.025*"require" + 0.023*"foreign" + 0.021*"license" + 0.018*"export" + 0.017*"gold" + 0.017*"exchange" + 0.015*"control"</t>
+  </si>
+  <si>
+    <t>0.043*"percent" + 0.026*"rate" + 0.018*"exchange" + 0.015*"value" + 0.014*"travel" + 0.012*"december" + 0.011*"foreign" + 0.010*"capital" + 0.009*"abroad" + 0.008*"limit"</t>
   </si>
 </sst>
 </file>
